--- a/state_results/Rivers/MangaoreatusShannonSTP_59f6c9c7e6.xlsx
+++ b/state_results/Rivers/MangaoreatusShannonSTP_59f6c9c7e6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U167"/>
+  <dimension ref="A1:U133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1311,13 +1311,13 @@
         <v>0.167</v>
       </c>
       <c r="G11" t="n">
-        <v>0.265127659574468</v>
+        <v>0.265176595744681</v>
       </c>
       <c r="H11" t="n">
         <v>1.32</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0608</v>
+        <v>1.06122</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1388,13 +1388,13 @@
         <v>0.167</v>
       </c>
       <c r="G12" t="n">
-        <v>0.265127659574468</v>
+        <v>0.265176595744681</v>
       </c>
       <c r="H12" t="n">
         <v>1.32</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0608</v>
+        <v>1.06122</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -2526,13 +2526,13 @@
         <v>0.1765</v>
       </c>
       <c r="G26" t="n">
-        <v>0.286431034482759</v>
+        <v>0.286470689655172</v>
       </c>
       <c r="H26" t="n">
         <v>1.32</v>
       </c>
       <c r="I26" t="n">
-        <v>0.981</v>
+        <v>0.9813</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2603,13 +2603,13 @@
         <v>0.1765</v>
       </c>
       <c r="G27" t="n">
-        <v>0.286431034482759</v>
+        <v>0.286470689655172</v>
       </c>
       <c r="H27" t="n">
         <v>1.32</v>
       </c>
       <c r="I27" t="n">
-        <v>0.981</v>
+        <v>0.9813</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3895,7 +3895,7 @@
         <v>0.1595</v>
       </c>
       <c r="G43" t="n">
-        <v>0.269603448275862</v>
+        <v>0.269613793103448</v>
       </c>
       <c r="H43" t="n">
         <v>1.32</v>
@@ -3906,7 +3906,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.13</v>
+        <v>0.1299</v>
       </c>
       <c r="M43" t="n">
         <v>0.50452</v>
@@ -3972,7 +3972,7 @@
         <v>0.1595</v>
       </c>
       <c r="G44" t="n">
-        <v>0.269603448275862</v>
+        <v>0.269613793103448</v>
       </c>
       <c r="H44" t="n">
         <v>1.32</v>
@@ -3983,7 +3983,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.13</v>
+        <v>0.1299</v>
       </c>
       <c r="M44" t="n">
         <v>0.50452</v>
@@ -5264,7 +5264,7 @@
         <v>0.145</v>
       </c>
       <c r="G60" t="n">
-        <v>0.224327586206897</v>
+        <v>0.22433275862069</v>
       </c>
       <c r="H60" t="n">
         <v>0.918</v>
@@ -5275,10 +5275,10 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.1225</v>
+        <v>0.1224</v>
       </c>
       <c r="M60" t="n">
-        <v>0.34032</v>
+        <v>0.34021</v>
       </c>
       <c r="N60" t="n">
         <v>0.56672</v>
@@ -5341,7 +5341,7 @@
         <v>0.145</v>
       </c>
       <c r="G61" t="n">
-        <v>0.224327586206897</v>
+        <v>0.22433275862069</v>
       </c>
       <c r="H61" t="n">
         <v>0.918</v>
@@ -5352,10 +5352,10 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.1225</v>
+        <v>0.1224</v>
       </c>
       <c r="M61" t="n">
-        <v>0.34032</v>
+        <v>0.34021</v>
       </c>
       <c r="N61" t="n">
         <v>0.56672</v>
@@ -6633,10 +6633,10 @@
         <v>0.168</v>
       </c>
       <c r="G77" t="n">
-        <v>0.239966101694915</v>
+        <v>0.239949152542373</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9411</v>
       </c>
       <c r="I77" t="n">
         <v>0.7039</v>
@@ -6710,10 +6710,10 @@
         <v>0.168</v>
       </c>
       <c r="G78" t="n">
-        <v>0.239966101694915</v>
+        <v>0.239949152542373</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9411</v>
       </c>
       <c r="I78" t="n">
         <v>0.7039</v>
@@ -8002,10 +8002,10 @@
         <v>0.135</v>
       </c>
       <c r="G94" t="n">
-        <v>0.215033333333333</v>
+        <v>0.215016666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9411</v>
       </c>
       <c r="I94" t="n">
         <v>0.5975</v>
@@ -8013,7 +8013,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.08765000000000001</v>
       </c>
       <c r="M94" t="n">
         <v>0.336</v>
@@ -8079,10 +8079,10 @@
         <v>0.135</v>
       </c>
       <c r="G95" t="n">
-        <v>0.215033333333333</v>
+        <v>0.215016666666667</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9411</v>
       </c>
       <c r="I95" t="n">
         <v>0.5975</v>
@@ -8090,7 +8090,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.08765000000000001</v>
       </c>
       <c r="M95" t="n">
         <v>0.336</v>
@@ -9371,10 +9371,10 @@
         <v>0.123</v>
       </c>
       <c r="G111" t="n">
-        <v>0.169416666666667</v>
+        <v>0.1694</v>
       </c>
       <c r="H111" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9411</v>
       </c>
       <c r="I111" t="n">
         <v>0.4375</v>
@@ -9382,10 +9382,10 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.079</v>
+        <v>0.0791</v>
       </c>
       <c r="M111" t="n">
-        <v>0.2667</v>
+        <v>0.26623</v>
       </c>
       <c r="N111" t="n">
         <v>0.364</v>
@@ -9448,10 +9448,10 @@
         <v>0.123</v>
       </c>
       <c r="G112" t="n">
-        <v>0.169416666666667</v>
+        <v>0.1694</v>
       </c>
       <c r="H112" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9411</v>
       </c>
       <c r="I112" t="n">
         <v>0.4375</v>
@@ -9459,10 +9459,10 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.079</v>
+        <v>0.0791</v>
       </c>
       <c r="M112" t="n">
-        <v>0.2667</v>
+        <v>0.26623</v>
       </c>
       <c r="N112" t="n">
         <v>0.364</v>
@@ -10740,10 +10740,10 @@
         <v>0.12</v>
       </c>
       <c r="G128" t="n">
-        <v>0.166339285714286</v>
+        <v>0.166335714285714</v>
       </c>
       <c r="H128" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9411</v>
       </c>
       <c r="I128" t="n">
         <v>0.3885</v>
@@ -10754,7 +10754,7 @@
         <v>0.075</v>
       </c>
       <c r="M128" t="n">
-        <v>0.27282</v>
+        <v>0.27242</v>
       </c>
       <c r="N128" t="n">
         <v>0.3164</v>
@@ -10817,10 +10817,10 @@
         <v>0.12</v>
       </c>
       <c r="G129" t="n">
-        <v>0.166339285714286</v>
+        <v>0.166335714285714</v>
       </c>
       <c r="H129" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9411</v>
       </c>
       <c r="I129" t="n">
         <v>0.3885</v>
@@ -10831,7 +10831,7 @@
         <v>0.075</v>
       </c>
       <c r="M129" t="n">
-        <v>0.27282</v>
+        <v>0.27242</v>
       </c>
       <c r="N129" t="n">
         <v>0.3164</v>
@@ -11176,2744 +11176,6 @@
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Visual Clarity (Sediment class 3)</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.877</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="M134" t="n">
-        <v>1.157</v>
-      </c>
-      <c r="N134" t="n">
-        <v>2.017</v>
-      </c>
-      <c r="O134" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P134" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q134" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U134" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.006802913873223</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.0154</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0.00702</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0.009979999999999999</v>
-      </c>
-      <c r="O135" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P135" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>DRP (Median)</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.006802913873223</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.0154</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="M136" t="n">
-        <v>0.00702</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.009979999999999999</v>
-      </c>
-      <c r="O136" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P136" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>E coli (&gt;260)</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>94</v>
-      </c>
-      <c r="G137" t="n">
-        <v>422.33199549327</v>
-      </c>
-      <c r="H137" t="n">
-        <v>6900</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2496.4</v>
-      </c>
-      <c r="J137" t="n">
-        <v>13.6363636363636</v>
-      </c>
-      <c r="K137" t="n">
-        <v>18.1818181818182</v>
-      </c>
-      <c r="L137" t="n">
-        <v>180</v>
-      </c>
-      <c r="M137" t="n">
-        <v>312.6</v>
-      </c>
-      <c r="N137" t="n">
-        <v>1288.4</v>
-      </c>
-      <c r="O137" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P137" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>% exceedances over 260/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>E coli (&gt;540)</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>94</v>
-      </c>
-      <c r="G138" t="n">
-        <v>422.33199549327</v>
-      </c>
-      <c r="H138" t="n">
-        <v>6900</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2496.4</v>
-      </c>
-      <c r="J138" t="n">
-        <v>13.6363636363636</v>
-      </c>
-      <c r="K138" t="n">
-        <v>18.1818181818182</v>
-      </c>
-      <c r="L138" t="n">
-        <v>180</v>
-      </c>
-      <c r="M138" t="n">
-        <v>312.6</v>
-      </c>
-      <c r="N138" t="n">
-        <v>1288.4</v>
-      </c>
-      <c r="O138" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P138" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U138" t="inlineStr">
-        <is>
-          <t>% exceedances over 540/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>E coli (Median)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>94</v>
-      </c>
-      <c r="G139" t="n">
-        <v>422.33199549327</v>
-      </c>
-      <c r="H139" t="n">
-        <v>6900</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2496.4</v>
-      </c>
-      <c r="J139" t="n">
-        <v>13.6363636363636</v>
-      </c>
-      <c r="K139" t="n">
-        <v>18.1818181818182</v>
-      </c>
-      <c r="L139" t="n">
-        <v>180</v>
-      </c>
-      <c r="M139" t="n">
-        <v>312.6</v>
-      </c>
-      <c r="N139" t="n">
-        <v>1288.4</v>
-      </c>
-      <c r="O139" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P139" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q139" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>E coli (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>94</v>
-      </c>
-      <c r="G140" t="n">
-        <v>422.33199549327</v>
-      </c>
-      <c r="H140" t="n">
-        <v>6900</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2496.4</v>
-      </c>
-      <c r="J140" t="n">
-        <v>13.6363636363636</v>
-      </c>
-      <c r="K140" t="n">
-        <v>18.1818181818182</v>
-      </c>
-      <c r="L140" t="n">
-        <v>180</v>
-      </c>
-      <c r="M140" t="n">
-        <v>312.6</v>
-      </c>
-      <c r="N140" t="n">
-        <v>1288.4</v>
-      </c>
-      <c r="O140" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P140" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>0.00271</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.0056075131917123</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.0519744519931911</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.02106</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>0.00327</v>
-      </c>
-      <c r="M141" t="n">
-        <v>0.00882</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0.01258</v>
-      </c>
-      <c r="O141" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P141" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U141" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (Median)</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>0.00271</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.0056075131917123</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.0519744519931911</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.02106</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>0.00327</v>
-      </c>
-      <c r="M142" t="n">
-        <v>0.00882</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0.01258</v>
-      </c>
-      <c r="O142" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P142" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q142" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U142" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Nitrate-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>0.1155</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.160242177386873</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.9344</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.3905</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0.25546</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0.32752</v>
-      </c>
-      <c r="O143" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P143" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q143" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U143" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Nitrate-N (Median)</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>0.1155</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.160242177386873</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.9344</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.3905</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0.25546</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.32752</v>
-      </c>
-      <c r="O144" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P144" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q144" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R144" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U144" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.172568181818182</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.9409999999999999</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.4065</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0.2751</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.3836</v>
-      </c>
-      <c r="O145" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P145" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U145" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F146" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.172568181818182</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.9409999999999999</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.4065</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.2751</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.3836</v>
-      </c>
-      <c r="O146" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P146" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R146" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U146" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.290590909090909</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.6497000000000001</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0.3912</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.4994</v>
-      </c>
-      <c r="O147" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P147" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U147" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.290590909090909</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0.6497000000000001</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0.3912</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0.4994</v>
-      </c>
-      <c r="O148" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P148" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U148" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.0304318181818182</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.1195</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.06044</v>
-      </c>
-      <c r="O149" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P149" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q149" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U149" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (Median)</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.0304318181818182</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.1195</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.06044</v>
-      </c>
-      <c r="O150" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P150" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q150" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U150" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Visual Clarity (Sediment class 3)</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.8563333333333329</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I151" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="M151" t="n">
-        <v>1.154</v>
-      </c>
-      <c r="N151" t="n">
-        <v>1.335</v>
-      </c>
-      <c r="O151" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P151" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q151" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U151" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.0072259657834927</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.0262</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>0.00389</v>
-      </c>
-      <c r="M152" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O152" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P152" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T152" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U152" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>DRP (Median)</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.0072259657834927</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.0262</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>0.00389</v>
-      </c>
-      <c r="M153" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O153" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P153" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U153" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>E coli (&gt;260)</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
-        <v>86</v>
-      </c>
-      <c r="G154" t="n">
-        <v>383.737743803246</v>
-      </c>
-      <c r="H154" t="n">
-        <v>6900</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1242</v>
-      </c>
-      <c r="J154" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K154" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="L154" t="n">
-        <v>140</v>
-      </c>
-      <c r="M154" t="n">
-        <v>263</v>
-      </c>
-      <c r="N154" t="n">
-        <v>712.2</v>
-      </c>
-      <c r="O154" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P154" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U154" t="inlineStr">
-        <is>
-          <t>% exceedances over 260/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>E coli (&gt;540)</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F155" t="n">
-        <v>86</v>
-      </c>
-      <c r="G155" t="n">
-        <v>383.737743803246</v>
-      </c>
-      <c r="H155" t="n">
-        <v>6900</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1242</v>
-      </c>
-      <c r="J155" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K155" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="L155" t="n">
-        <v>140</v>
-      </c>
-      <c r="M155" t="n">
-        <v>263</v>
-      </c>
-      <c r="N155" t="n">
-        <v>712.2</v>
-      </c>
-      <c r="O155" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P155" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q155" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T155" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U155" t="inlineStr">
-        <is>
-          <t>% exceedances over 540/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>E coli (Median)</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F156" t="n">
-        <v>86</v>
-      </c>
-      <c r="G156" t="n">
-        <v>383.737743803246</v>
-      </c>
-      <c r="H156" t="n">
-        <v>6900</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1242</v>
-      </c>
-      <c r="J156" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K156" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="L156" t="n">
-        <v>140</v>
-      </c>
-      <c r="M156" t="n">
-        <v>263</v>
-      </c>
-      <c r="N156" t="n">
-        <v>712.2</v>
-      </c>
-      <c r="O156" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P156" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q156" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R156" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S156" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T156" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U156" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>E coli (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F157" t="n">
-        <v>86</v>
-      </c>
-      <c r="G157" t="n">
-        <v>383.737743803246</v>
-      </c>
-      <c r="H157" t="n">
-        <v>6900</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1242</v>
-      </c>
-      <c r="J157" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K157" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="L157" t="n">
-        <v>140</v>
-      </c>
-      <c r="M157" t="n">
-        <v>263</v>
-      </c>
-      <c r="N157" t="n">
-        <v>712.2</v>
-      </c>
-      <c r="O157" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P157" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q157" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R157" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T157" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U157" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F158" t="n">
-        <v>0.00322</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.0070519287091076</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0.0519744519931911</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.02986</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>0.00361</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0.01498</v>
-      </c>
-      <c r="O158" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P158" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q158" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R158" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U158" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (Median)</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F159" t="n">
-        <v>0.00322</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.0070519287091076</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0.0519744519931911</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.02986</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>0.00361</v>
-      </c>
-      <c r="M159" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0.01498</v>
-      </c>
-      <c r="O159" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P159" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R159" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T159" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U159" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Nitrate-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F160" t="n">
-        <v>0.1065</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.1195</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0.328</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0.2643</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M160" t="n">
-        <v>0.18348</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0.22908</v>
-      </c>
-      <c r="O160" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P160" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q160" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R160" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S160" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T160" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U160" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Nitrate-N (Median)</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F161" t="n">
-        <v>0.1065</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.1195</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0.328</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0.2643</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M161" t="n">
-        <v>0.18348</v>
-      </c>
-      <c r="N161" t="n">
-        <v>0.22908</v>
-      </c>
-      <c r="O161" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P161" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q161" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R161" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S161" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T161" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U161" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F162" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.13171875</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M162" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0.2332</v>
-      </c>
-      <c r="O162" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P162" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R162" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S162" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T162" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U162" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F163" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.13171875</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M163" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="N163" t="n">
-        <v>0.2332</v>
-      </c>
-      <c r="O163" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P163" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R163" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S163" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T163" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U163" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F164" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.2534375</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M164" t="n">
-        <v>0.3006</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="O164" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P164" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R164" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S164" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T164" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U164" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F165" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.2534375</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M165" t="n">
-        <v>0.3006</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="O165" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P165" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R165" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S165" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T165" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U165" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F166" t="n">
-        <v>0.0155</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.033625</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0.2005</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0.02306</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0.07593999999999999</v>
-      </c>
-      <c r="O166" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P166" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q166" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R166" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S166" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T166" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U166" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Mangaore at u/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (Median)</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F167" t="n">
-        <v>0.0155</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.033625</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0.2005</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="M167" t="n">
-        <v>0.02306</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0.07593999999999999</v>
-      </c>
-      <c r="O167" t="n">
-        <v>1803285</v>
-      </c>
-      <c r="P167" t="n">
-        <v>5509883</v>
-      </c>
-      <c r="Q167" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R167" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="T167" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="U167" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
